--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168588.9854407492</v>
+        <v>163549.1342113834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.17872461</v>
+        <v>12396667.49869666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.35941039</v>
+        <v>18482261.47781501</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3811976.75277797</v>
+        <v>3928678.55514847</v>
       </c>
     </row>
     <row r="11">
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>211.2450056236571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>60.92828130464693</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>20.13684546716322</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>77.79891353243745</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>211.6296614683115</v>
+      </c>
+      <c r="X22" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V22" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>211.2450056236571</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>202.5496269016835</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>62.79391026952657</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>10.09654902888533</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>118.8592197488542</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>39.21586356488644</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>110.1864132391289</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V26" t="n">
-        <v>164.9366423243502</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>92.94867414296913</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>22.25576751414446</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>77.71945504116889</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>211.6296614683116</v>
+      </c>
+      <c r="W28" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>65.59588116322361</v>
+      </c>
+      <c r="E29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G29" t="n">
         <v>229.9609751381512</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>121.8736492646526</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>18.20098727306443</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>229.9609751381512</v>
+        <v>196.9795508884337</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.5496269016834</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>202.5496269016834</v>
+        <v>37.70120739332344</v>
       </c>
       <c r="H32" t="n">
         <v>229.9609751381512</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>76.35366905277411</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>20.61494847806852</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>43.12659471364081</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>229.9609751381512</v>
@@ -3253,7 +3255,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>80.65159678077565</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Y35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>91.44498230005198</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,16 +3401,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>168.407128022392</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.947094608741369</v>
       </c>
       <c r="G37" t="n">
-        <v>1.761703922407231</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="W38" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>202.5496269016834</v>
+        <v>27.98289658589034</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>87.19167727179405</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>99.15343581232247</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>15.28295724854095</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>88.96768199456282</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="F41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>74.29125988519733</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
@@ -3882,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>61.12539172422213</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>37.70120739332342</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>48.68965834337547</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>35.97811354013456</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.7756715703017</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C20" t="n">
-        <v>231.7756715703017</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D20" t="n">
-        <v>231.7756715703017</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E20" t="n">
-        <v>231.7756715703017</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F20" t="n">
-        <v>231.7756715703017</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G20" t="n">
-        <v>231.7756715703017</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="H20" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="I20" t="n">
         <v>18.39687801105209</v>
@@ -5753,22 +5755,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K20" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L20" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M20" t="n">
-        <v>692.182535165835</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N20" t="n">
-        <v>919.8439005526046</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q20" t="n">
         <v>919.8439005526046</v>
@@ -5777,25 +5779,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T20" t="n">
-        <v>696.3432981120213</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U20" t="n">
-        <v>464.0594848411615</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V20" t="n">
-        <v>464.0594848411615</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W20" t="n">
-        <v>464.0594848411615</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X20" t="n">
-        <v>231.7756715703017</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y20" t="n">
-        <v>231.7756715703017</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>236.7832617889708</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="C21" t="n">
-        <v>236.7832617889708</v>
+        <v>592.2058583116053</v>
       </c>
       <c r="D21" t="n">
-        <v>106.6942944104512</v>
+        <v>462.1168909330856</v>
       </c>
       <c r="E21" t="n">
-        <v>106.6942944104512</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F21" t="n">
-        <v>106.6942944104512</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G21" t="n">
-        <v>106.6942944104512</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J21" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K21" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L21" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M21" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N21" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O21" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P21" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
@@ -5859,22 +5861,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U21" t="n">
-        <v>709.7807572312464</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2407556023135</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="W21" t="n">
-        <v>257.1235097356004</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="X21" t="n">
-        <v>236.7832617889708</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="Y21" t="n">
-        <v>236.7832617889708</v>
+        <v>742.8600887515131</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C22" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D22" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E22" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F22" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H22" t="n">
         <v>18.39687801105209</v>
@@ -5935,25 +5937,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S22" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T22" t="n">
-        <v>717.0278167351539</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U22" t="n">
-        <v>484.7440034642941</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V22" t="n">
-        <v>252.4601901934343</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4601901934343</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X22" t="n">
-        <v>252.4601901934343</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>482.9645045527716</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="C23" t="n">
-        <v>482.9645045527716</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="D23" t="n">
-        <v>482.9645045527716</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="E23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5987,25 +5989,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L23" t="n">
-        <v>464.5211697790654</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M23" t="n">
-        <v>692.182535165835</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N23" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P23" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6017,22 +6019,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U23" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>286.3399006992865</v>
+        <v>730.5368229026162</v>
       </c>
       <c r="C24" t="n">
-        <v>286.3399006992865</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D24" t="n">
-        <v>286.3399006992865</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E24" t="n">
-        <v>286.3399006992865</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F24" t="n">
         <v>276.1413663266751</v>
@@ -6069,49 +6071,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M24" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O24" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P24" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T24" t="n">
-        <v>718.9430456495777</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U24" t="n">
-        <v>508.8799023282195</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V24" t="n">
-        <v>286.3399006992865</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W24" t="n">
-        <v>286.3399006992865</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X24" t="n">
-        <v>286.3399006992865</v>
+        <v>730.5368229026162</v>
       </c>
       <c r="Y24" t="n">
-        <v>286.3399006992865</v>
+        <v>730.5368229026162</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.731839369248</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5267214352372</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D25" t="n">
-        <v>370.8936083377519</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E25" t="n">
-        <v>215.3347961969544</v>
+        <v>455.276274010885</v>
       </c>
       <c r="F25" t="n">
-        <v>58.00886140992736</v>
+        <v>297.950339223858</v>
       </c>
       <c r="G25" t="n">
-        <v>18.39687801105217</v>
+        <v>129.6962853233035</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K25" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L25" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M25" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O25" t="n">
         <v>796.5455384059751</v>
@@ -6175,22 +6177,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X25" t="n">
-        <v>919.8439005526046</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.731839369248</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="C26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="D26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="E26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="F26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="G26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="H26" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="I26" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K26" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L26" t="n">
-        <v>390.7080163066498</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M26" t="n">
-        <v>618.3693816934194</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6251,25 +6253,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S26" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T26" t="n">
-        <v>881.8509868381266</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U26" t="n">
-        <v>881.8509868381266</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V26" t="n">
-        <v>715.2483178236314</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W26" t="n">
-        <v>482.9645045527716</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X26" t="n">
-        <v>250.6806912819119</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>423.0537456901538</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C27" t="n">
-        <v>423.0537456901538</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D27" t="n">
-        <v>423.0537456901538</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E27" t="n">
         <v>400.5731724435433</v>
@@ -6306,19 +6308,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="L27" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="M27" t="n">
         <v>359.1732256175491</v>
       </c>
-      <c r="L27" t="n">
-        <v>359.1732256175491</v>
-      </c>
-      <c r="M27" t="n">
-        <v>464.5211697790654</v>
-      </c>
       <c r="N27" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O27" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P27" t="n">
         <v>919.8439005526046</v>
@@ -6327,28 +6329,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T27" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U27" t="n">
-        <v>574.8500801311152</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V27" t="n">
-        <v>574.8500801311152</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W27" t="n">
-        <v>574.8500801311152</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X27" t="n">
-        <v>574.8500801311152</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y27" t="n">
-        <v>574.8500801311152</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C28" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D28" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E28" t="n">
-        <v>96.90137805263683</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F28" t="n">
         <v>18.39687801105209</v>
@@ -6391,7 +6393,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N28" t="n">
         <v>633.8407713642671</v>
@@ -6409,25 +6411,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S28" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U28" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V28" t="n">
-        <v>252.4601901934343</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="W28" t="n">
-        <v>252.4601901934343</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X28" t="n">
-        <v>252.4601901934343</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y28" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="C29" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="D29" t="n">
+        <v>853.5854347311666</v>
+      </c>
+      <c r="E29" t="n">
         <v>621.3016214603068</v>
-      </c>
-      <c r="C29" t="n">
-        <v>621.3016214603068</v>
-      </c>
-      <c r="D29" t="n">
-        <v>389.017808189447</v>
-      </c>
-      <c r="E29" t="n">
-        <v>389.017808189447</v>
       </c>
       <c r="F29" t="n">
         <v>389.017808189447</v>
@@ -6464,22 +6466,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M29" t="n">
-        <v>163.0466509198802</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N29" t="n">
-        <v>390.7080163066498</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
@@ -6494,19 +6496,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U29" t="n">
-        <v>853.5854347311666</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V29" t="n">
-        <v>621.3016214603068</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W29" t="n">
-        <v>621.3016214603068</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X29" t="n">
-        <v>621.3016214603068</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y29" t="n">
-        <v>621.3016214603068</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>187.8439499272761</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>187.8439499272761</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>187.8439499272761</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>187.8439499272761</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>187.8439499272761</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I30" t="n">
         <v>18.39687801105209</v>
@@ -6543,19 +6545,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K30" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L30" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M30" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N30" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O30" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P30" t="n">
         <v>919.8439005526046</v>
@@ -6564,28 +6566,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S30" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U30" t="n">
-        <v>574.8500801311152</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V30" t="n">
-        <v>574.8500801311152</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="W30" t="n">
-        <v>556.4652445017572</v>
+        <v>320.8157911624667</v>
       </c>
       <c r="X30" t="n">
-        <v>367.1581668517688</v>
+        <v>320.8157911624667</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.8439499272761</v>
+        <v>141.5015742379739</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.39687801105209</v>
+        <v>497.7625960475978</v>
       </c>
       <c r="C31" t="n">
-        <v>18.39687801105209</v>
+        <v>497.7625960475978</v>
       </c>
       <c r="D31" t="n">
-        <v>18.39687801105209</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="E31" t="n">
-        <v>18.39687801105209</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="F31" t="n">
-        <v>18.39687801105209</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="G31" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H31" t="n">
         <v>18.39687801105209</v>
@@ -6628,7 +6630,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N31" t="n">
         <v>633.8407713642671</v>
@@ -6655,16 +6657,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V31" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W31" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X31" t="n">
-        <v>222.9924607400252</v>
+        <v>720.8746572309544</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.39687801105209</v>
+        <v>497.7625960475978</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>455.276274010885</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="C32" t="n">
-        <v>455.276274010885</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="D32" t="n">
-        <v>455.276274010885</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="E32" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="F32" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="G32" t="n">
         <v>250.6806912819119</v>
@@ -6698,25 +6700,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L32" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M32" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N32" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O32" t="n">
-        <v>701.380974171361</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
@@ -6725,25 +6727,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="Y32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>148.4858453895718</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="C33" t="n">
-        <v>148.4858453895718</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="D33" t="n">
-        <v>18.39687801105209</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="E33" t="n">
-        <v>18.39687801105209</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="F33" t="n">
-        <v>18.39687801105209</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="G33" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H33" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
@@ -6801,28 +6803,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U33" t="n">
-        <v>919.8439005526046</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V33" t="n">
-        <v>899.0207202717273</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9034744050142</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X33" t="n">
-        <v>479.5963967550259</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="Y33" t="n">
-        <v>300.2821798305331</v>
+        <v>233.2064666336649</v>
       </c>
     </row>
     <row r="34">
@@ -6865,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6892,16 +6894,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V34" t="n">
-        <v>876.2816836701392</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W34" t="n">
-        <v>643.9978703992793</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X34" t="n">
-        <v>411.7140571284195</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.6019959450629</v>
+        <v>373.8100146363641</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G35" t="n">
         <v>18.39687801105209</v>
@@ -6935,16 +6937,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L35" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M35" t="n">
-        <v>701.380974171361</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N35" t="n">
         <v>919.8439005526046</v>
@@ -6965,22 +6967,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W35" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X35" t="n">
-        <v>250.6806912819119</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.39687801105209</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="C36" t="n">
-        <v>18.39687801105209</v>
+        <v>247.2120378901159</v>
       </c>
       <c r="D36" t="n">
-        <v>18.39687801105209</v>
+        <v>247.2120378901159</v>
       </c>
       <c r="E36" t="n">
-        <v>18.39687801105209</v>
+        <v>110.7655470010036</v>
       </c>
       <c r="F36" t="n">
         <v>18.39687801105209</v>
@@ -7014,25 +7016,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K36" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L36" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M36" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N36" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O36" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P36" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7047,19 +7049,19 @@
         <v>607.9294116513819</v>
       </c>
       <c r="U36" t="n">
-        <v>437.8212015277536</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V36" t="n">
-        <v>437.8212015277536</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="W36" t="n">
-        <v>207.7039556610404</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="X36" t="n">
-        <v>18.39687801105209</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.39687801105209</v>
+        <v>397.8662683300237</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.17637692257455</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C37" t="n">
-        <v>20.17637692257455</v>
+        <v>190.6378961628604</v>
       </c>
       <c r="D37" t="n">
-        <v>20.17637692257455</v>
+        <v>190.6378961628604</v>
       </c>
       <c r="E37" t="n">
-        <v>20.17637692257455</v>
+        <v>190.6378961628604</v>
       </c>
       <c r="F37" t="n">
-        <v>20.17637692257455</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G37" t="n">
         <v>18.39687801105209</v>
@@ -7117,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>717.0278167351539</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T37" t="n">
-        <v>484.7440034642941</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U37" t="n">
-        <v>252.4601901934343</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V37" t="n">
-        <v>252.4601901934343</v>
+        <v>593.126827367731</v>
       </c>
       <c r="W37" t="n">
-        <v>20.17637692257455</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="X37" t="n">
-        <v>20.17637692257455</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.17637692257455</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.6806912819119</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="C38" t="n">
-        <v>250.6806912819119</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="D38" t="n">
-        <v>250.6806912819119</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="E38" t="n">
-        <v>250.6806912819119</v>
+        <v>389.017808189447</v>
       </c>
       <c r="F38" t="n">
-        <v>250.6806912819119</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G38" t="n">
-        <v>250.6806912819119</v>
+        <v>389.017808189447</v>
       </c>
       <c r="H38" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I38" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K38" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L38" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M38" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N38" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O38" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7196,28 +7198,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V38" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W38" t="n">
-        <v>455.276274010885</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X38" t="n">
-        <v>455.276274010885</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.6806912819119</v>
+        <v>621.3016214603068</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.1235097356004</v>
+        <v>512.7428428848</v>
       </c>
       <c r="C39" t="n">
-        <v>106.4692792956926</v>
+        <v>512.7428428848</v>
       </c>
       <c r="D39" t="n">
-        <v>106.4692792956926</v>
+        <v>512.7428428848</v>
       </c>
       <c r="E39" t="n">
-        <v>18.39687801105209</v>
+        <v>376.2963519956877</v>
       </c>
       <c r="F39" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G39" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H39" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
@@ -7254,22 +7256,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>131.5118602307795</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L39" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M39" t="n">
-        <v>131.5118602307795</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N39" t="n">
-        <v>236.8598043922958</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O39" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
@@ -7281,22 +7283,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T39" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U39" t="n">
-        <v>709.7807572312464</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2407556023135</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="W39" t="n">
-        <v>257.1235097356004</v>
+        <v>512.7428428848</v>
       </c>
       <c r="X39" t="n">
-        <v>257.1235097356004</v>
+        <v>512.7428428848</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.1235097356004</v>
+        <v>512.7428428848</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.39687801105209</v>
+        <v>502.3520685904437</v>
       </c>
       <c r="C40" t="n">
-        <v>18.39687801105209</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D40" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E40" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F40" t="n">
         <v>18.39687801105209</v>
@@ -7348,34 +7350,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P40" t="n">
-        <v>916.4217041825536</v>
+        <v>916.4217041825538</v>
       </c>
       <c r="Q40" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="R40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="S40" t="n">
-        <v>706.0765657361283</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="T40" t="n">
-        <v>706.0765657361283</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="U40" t="n">
-        <v>706.0765657361283</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="V40" t="n">
-        <v>706.0765657361283</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="W40" t="n">
-        <v>473.7927524652685</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="X40" t="n">
-        <v>241.5089391944087</v>
+        <v>687.5600872817449</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817449</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C41" t="n">
-        <v>464.0594848411615</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D41" t="n">
-        <v>231.7756715703017</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E41" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F41" t="n">
-        <v>231.7756715703017</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G41" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H41" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I41" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K41" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L41" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M41" t="n">
-        <v>464.5211697790654</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N41" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P41" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
@@ -7439,22 +7441,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>696.3432981120213</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y41" t="n">
-        <v>696.3432981120213</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H42" t="n">
         <v>18.39687801105209</v>
@@ -7518,22 +7520,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T42" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U42" t="n">
-        <v>709.7807572312464</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V42" t="n">
-        <v>487.2407556023135</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W42" t="n">
-        <v>257.1235097356004</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81643208561201</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.39687801105209</v>
+        <v>344.2351090425481</v>
       </c>
       <c r="C43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D43" t="n">
         <v>18.39687801105209</v>
@@ -7600,19 +7602,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U43" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V43" t="n">
-        <v>482.9645045527716</v>
+        <v>752.5551889172061</v>
       </c>
       <c r="W43" t="n">
-        <v>250.6806912819119</v>
+        <v>752.5551889172061</v>
       </c>
       <c r="X43" t="n">
-        <v>18.39687801105209</v>
+        <v>752.5551889172061</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.39687801105209</v>
+        <v>529.4431277338495</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>846.030747080189</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>288.7627189519355</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>560.01837283546</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>409.3641423955522</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>711.8147072764214</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>651.2185584533261</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>418.9347451824663</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>418.9347451824663</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
     </row>
   </sheetData>
@@ -9401,25 +9403,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>183.5207730203541</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9495,10 +9497,10 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P21" t="n">
-        <v>317.0443399574658</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.4002179655265</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O23" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,25 +9719,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
         <v>383.2091448686429</v>
@@ -9884,7 +9886,7 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>266.9255203461039</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O26" t="n">
         <v>149.5638374240964</v>
@@ -9893,7 +9895,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,13 +9956,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
         <v>315.3330879923178</v>
@@ -9969,7 +9971,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10112,25 +10114,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O29" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>268.108476249245</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,22 +10193,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3480971874631</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N30" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P30" t="n">
-        <v>307.7529874266314</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M32" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P32" t="n">
-        <v>370.971069848242</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>373.0193783173885</v>
@@ -10595,7 +10597,7 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
-        <v>369.7881139451009</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O35" t="n">
         <v>149.5638374240964</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>319.5579104714845</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L36" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N36" t="n">
-        <v>306.0417354614835</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O36" t="n">
         <v>92.68755888888889</v>
@@ -10683,7 +10685,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>217.6171440604653</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
         <v>379.0794664759352</v>
@@ -10838,7 +10840,7 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P38" t="n">
-        <v>380.2624223790764</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10902,25 +10904,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N39" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -10984,7 +10986,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>227.8069106117196</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N41" t="n">
         <v>379.0794664759352</v>
@@ -11075,10 +11077,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
         <v>149.7250515977273</v>
@@ -11312,10 +11314,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>219.0574392996201</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11385,16 +11387,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23984,10 +23986,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>109.5972143055171</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>90.55715962316265</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24048,25 +24050,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>74.15374467557422</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,19 +24101,19 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>167.2771614063252</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24130,7 +24132,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>76.27786843407294</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24142,7 +24144,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24175,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U22" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>68.86743657982262</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24214,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>168.5967144964697</v>
+        <v>187.3126840109637</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24221,7 +24223,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,13 +24259,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>136.1361143018333</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24285,16 +24287,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>86.35377786598212</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>113.0909390268142</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24364,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>127.3556497966625</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>43.73735228899207</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24415,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24461,7 +24463,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>128.1701442004959</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V26" t="n">
-        <v>173.7490988791666</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>56.19901399253958</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>112.8262584660767</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24607,10 +24609,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>78.03322039798789</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24649,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>33.35857658923285</v>
+        <v>51.68989025907243</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>151.6257423573478</v>
+        <v>315.9908363322753</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
         <v>179.0701528187257</v>
@@ -24734,10 +24736,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>187.5993211065237</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>28.40472183189915</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24771,13 +24773,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>209.6150861349816</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24850,10 +24852,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24895,16 +24897,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>1.778543856695563</v>
+        <v>34.75996810641303</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.33131366983966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>206.4815010551934</v>
+        <v>371.3299205635534</v>
       </c>
       <c r="H32" t="n">
         <v>90.88124479102308</v>
@@ -24965,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24974,7 +24976,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
@@ -25008,13 +25010,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>42.50555069608009</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -25050,19 +25052,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>199.6996531345751</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>220.1929570137432</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>50.53612290998299</v>
@@ -25141,7 +25143,7 @@
         <v>1.778543856695563</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>140.2293437907474</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25205,22 +25207,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X35" t="n">
         <v>155.5971038781226</v>
       </c>
       <c r="Y35" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25235,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>31.74250575564754</v>
       </c>
       <c r="G36" t="n">
         <v>118.8592197488542</v>
@@ -25287,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>39.55538386575262</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25312,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25321,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>151.8055808304154</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8098094391417</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25397,7 +25399,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25409,7 +25411,7 @@
         <v>90.88124479102308</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.9761750869215</v>
+        <v>364.5429054027146</v>
       </c>
     </row>
     <row r="39">
@@ -25470,25 +25472,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>47.8903487084271</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>24.03405224337705</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>153.2201095061297</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>111.8202409847133</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -25609,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>1.778543856695563</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>196.0080627329375</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G41" t="n">
-        <v>334.7398680716795</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25722,7 +25724,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>38.48908370159076</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
         <v>48.89338144820752</v>
@@ -25758,7 +25760,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>116.3956830310257</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25840,19 +25842,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>80.03477693883457</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>97.7037272083395</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>99.2525383451364</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>118.8592197488542</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -26010,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>128.8314164118724</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26071,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>164.8098094391416</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435041.3003667663</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435041.3003667664</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435041.3003667663</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>37572.82867886667</v>
       </c>
       <c r="E2" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="F2" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="G2" t="n">
         <v>37572.82867886667</v>
       </c>
       <c r="H2" t="n">
+        <v>70146.61683840569</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70146.61683840569</v>
+      </c>
+      <c r="J2" t="n">
         <v>70146.61683840567</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>70146.61683840567</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>70146.61683840568</v>
       </c>
-      <c r="K2" t="n">
-        <v>70146.61683840565</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>70146.61683840567</v>
       </c>
-      <c r="M2" t="n">
-        <v>70146.61683840565</v>
-      </c>
       <c r="N2" t="n">
-        <v>70146.61683840567</v>
+        <v>70146.61683840568</v>
       </c>
       <c r="O2" t="n">
-        <v>70146.61683840564</v>
+        <v>70146.61683840568</v>
       </c>
       <c r="P2" t="n">
-        <v>37572.82867886667</v>
+        <v>70146.61683840568</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54356.79553730534</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="C4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="D4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="E4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="F4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="G4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="H4" t="n">
-        <v>14361.01034434902</v>
+        <v>14361.01034434903</v>
       </c>
       <c r="I4" t="n">
         <v>14361.01034434902</v>
       </c>
       <c r="J4" t="n">
-        <v>14361.01034434903</v>
+        <v>14361.01034434902</v>
       </c>
       <c r="K4" t="n">
         <v>14361.01034434902</v>
       </c>
       <c r="L4" t="n">
-        <v>14361.01034434902</v>
+        <v>14361.01034434903</v>
       </c>
       <c r="M4" t="n">
         <v>14361.01034434902</v>
@@ -26457,7 +26459,7 @@
         <v>14361.01034434902</v>
       </c>
       <c r="P4" t="n">
-        <v>7514.565735773334</v>
+        <v>14361.01034434902</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-3569.337056906657</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-3569.337056906657</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-3569.337056906657</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309335</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309335</v>
       </c>
       <c r="G6" t="n">
         <v>30058.26294309334</v>
       </c>
       <c r="H6" t="n">
-        <v>-20241.56153539238</v>
+        <v>-20241.56153539235</v>
       </c>
       <c r="I6" t="n">
+        <v>41803.97920565708</v>
+      </c>
+      <c r="J6" t="n">
         <v>41803.97920565705</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>41803.97920565705</v>
+      </c>
+      <c r="L6" t="n">
         <v>41803.97920565707</v>
       </c>
-      <c r="K6" t="n">
-        <v>41803.97920565704</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>41803.97920565705</v>
       </c>
-      <c r="M6" t="n">
-        <v>41803.97920565704</v>
-      </c>
       <c r="N6" t="n">
-        <v>41803.97920565705</v>
+        <v>41803.97920565707</v>
       </c>
       <c r="O6" t="n">
-        <v>41803.97920565702</v>
+        <v>41803.97920565707</v>
       </c>
       <c r="P6" t="n">
-        <v>30058.26294309333</v>
+        <v>-12552.81633164827</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>33.95693559625767</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P21" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="Q21" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N24" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P24" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
         <v>229.9609751381512</v>
@@ -36604,7 +36606,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>117.8070290083198</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="N27" t="n">
         <v>229.9609751381512</v>
@@ -36689,7 +36691,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L28" t="n">
         <v>165.78549482202</v>
@@ -36832,25 +36834,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P30" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L31" t="n">
         <v>165.78549482202</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P32" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>229.9609751381512</v>
@@ -37315,7 +37317,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N35" t="n">
-        <v>220.6696226073168</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N36" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
         <v>229.9609751381512</v>
@@ -37558,7 +37560,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P38" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N39" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="N41" t="n">
         <v>229.9609751381512</v>
@@ -37795,10 +37797,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,10 +38034,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163549.1342113834</v>
+        <v>152648.9243827276</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396667.49869666</v>
+        <v>12064315.81866871</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18482261.47781501</v>
+        <v>18156523.5962196</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3928678.55514847</v>
+        <v>4094781.608993281</v>
       </c>
     </row>
     <row r="11">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.47284493517301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>46.39658611529718</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>60.92828130464693</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>118.8592197488542</v>
@@ -2180,7 +2180,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>102.9461893309669</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.0158992255242</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>211.6296614683115</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>229.9609751381512</v>
@@ -2317,20 +2317,20 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>211.2450056236571</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>62.79391026952657</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>100.6855103950369</v>
       </c>
       <c r="G24" t="n">
         <v>118.8592197488542</v>
@@ -2417,7 +2417,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1864132391289</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>229.9609751381512</v>
+        <v>110.013663570784</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.783601537963911</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>229.9609751381512</v>
+        <v>211.2450056236572</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>92.94867414296913</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>32.30893275760349</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V28" t="n">
-        <v>211.6296614683116</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>65.59588116322361</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="G29" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>37.70120739332346</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.8736492646526</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134.2401229898637</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>10.84173848903534</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>196.9795508884337</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3034,67 +3034,67 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>37.70120739332344</v>
-      </c>
-      <c r="H32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>76.35366905277411</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>11.05263493416421</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>139.3594653980039</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.65159678077565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V35" t="n">
         <v>229.9609751381512</v>
@@ -3331,7 +3331,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="X35" t="n">
-        <v>229.9609751381512</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>91.44498230005198</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>212.8024227946383</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.947094608741369</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>31.4025860717401</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.08822281599019959</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.98289658589034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>99.15343581232247</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>61.12539172422213</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3663,16 +3663,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>15.28295724854095</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.27372296392322</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>202.5496269016834</v>
       </c>
       <c r="F41" t="n">
         <v>229.9609751381512</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
     </row>
     <row r="42">
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>61.12539172422213</v>
+        <v>111.980717146412</v>
       </c>
     </row>
     <row r="43">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>109.0606995868098</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.6158245190445</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>37.70120739332352</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I44" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>186.1521348419353</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.68965834337547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.97811354013456</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U46" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="W46" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
       <c r="X46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>43.89938898367657</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="C20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="D20" t="n">
-        <v>65.26211651135227</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="E20" t="n">
-        <v>65.26211651135227</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="F20" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G20" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H20" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I20" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L20" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M20" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N20" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O20" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P20" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q20" t="n">
         <v>919.8439005526046</v>
@@ -5779,25 +5779,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T20" t="n">
-        <v>529.8297430530719</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.5459297822121</v>
+        <v>464.0594848411615</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>742.8600887515131</v>
+        <v>363.200603227699</v>
       </c>
       <c r="C21" t="n">
-        <v>592.2058583116053</v>
+        <v>363.200603227699</v>
       </c>
       <c r="D21" t="n">
-        <v>462.1168909330856</v>
+        <v>363.200603227699</v>
       </c>
       <c r="E21" t="n">
-        <v>400.5731724435433</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="F21" t="n">
-        <v>276.1413663266751</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G21" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
@@ -5834,22 +5834,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K21" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L21" t="n">
-        <v>246.0582433978217</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M21" t="n">
-        <v>246.0582433978217</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N21" t="n">
-        <v>246.0582433978217</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O21" t="n">
-        <v>473.7196087845913</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
@@ -5861,22 +5861,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U21" t="n">
-        <v>742.8600887515131</v>
+        <v>815.8578507233451</v>
       </c>
       <c r="V21" t="n">
-        <v>742.8600887515131</v>
+        <v>593.3178490944122</v>
       </c>
       <c r="W21" t="n">
-        <v>742.8600887515131</v>
+        <v>363.200603227699</v>
       </c>
       <c r="X21" t="n">
-        <v>742.8600887515131</v>
+        <v>363.200603227699</v>
       </c>
       <c r="Y21" t="n">
-        <v>742.8600887515131</v>
+        <v>363.200603227699</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G22" t="n">
         <v>18.39687801105209</v>
@@ -5934,28 +5934,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R22" t="n">
-        <v>919.8439005526046</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="S22" t="n">
-        <v>919.8439005526046</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="T22" t="n">
-        <v>687.5600872817448</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="U22" t="n">
-        <v>687.5600872817448</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="V22" t="n">
-        <v>687.5600872817448</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="W22" t="n">
-        <v>473.7927524652685</v>
+        <v>797.6056185066205</v>
       </c>
       <c r="X22" t="n">
-        <v>241.5089391944087</v>
+        <v>565.3218052357607</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.39687801105209</v>
+        <v>342.2097440524041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C23" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D23" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E23" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F23" t="n">
         <v>18.39687801105209</v>
@@ -5992,22 +5992,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L23" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M23" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N23" t="n">
-        <v>507.3369750248864</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P23" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6016,25 +6016,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T23" t="n">
-        <v>696.3432981120213</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U23" t="n">
-        <v>696.3432981120213</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V23" t="n">
-        <v>464.0594848411615</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W23" t="n">
-        <v>464.0594848411615</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X23" t="n">
-        <v>464.0594848411615</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y23" t="n">
-        <v>464.0594848411615</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>730.5368229026162</v>
+        <v>609.1998459095767</v>
       </c>
       <c r="C24" t="n">
-        <v>667.1086307111752</v>
+        <v>458.5456154696689</v>
       </c>
       <c r="D24" t="n">
-        <v>537.0196633326556</v>
+        <v>328.4566480911492</v>
       </c>
       <c r="E24" t="n">
-        <v>400.5731724435433</v>
+        <v>328.4566480911492</v>
       </c>
       <c r="F24" t="n">
-        <v>276.1413663266751</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G24" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H24" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I24" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K24" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L24" t="n">
-        <v>359.1732256175491</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M24" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N24" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X24" t="n">
-        <v>730.5368229026162</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y24" t="n">
-        <v>730.5368229026162</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>455.276274010885</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="C25" t="n">
-        <v>455.276274010885</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="D25" t="n">
-        <v>455.276274010885</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="E25" t="n">
-        <v>455.276274010885</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F25" t="n">
-        <v>297.950339223858</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G25" t="n">
-        <v>129.6962853233035</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
         <v>18.39687801105209</v>
@@ -6147,19 +6147,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K25" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L25" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M25" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O25" t="n">
         <v>796.5455384059751</v>
@@ -6171,28 +6171,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S25" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T25" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U25" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V25" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W25" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X25" t="n">
-        <v>455.276274010885</v>
+        <v>684.81799848742</v>
       </c>
       <c r="Y25" t="n">
-        <v>455.276274010885</v>
+        <v>684.81799848742</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27.26920279687423</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C26" t="n">
-        <v>27.26920279687423</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D26" t="n">
-        <v>27.26920279687423</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E26" t="n">
-        <v>27.26920279687423</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F26" t="n">
-        <v>27.26920279687423</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G26" t="n">
-        <v>27.26920279687423</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H26" t="n">
-        <v>27.26920279687423</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I26" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K26" t="n">
-        <v>246.0582433978217</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L26" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M26" t="n">
-        <v>701.380974171361</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N26" t="n">
-        <v>919.8439005526046</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O26" t="n">
         <v>919.8439005526046</v>
@@ -6250,28 +6250,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>491.8368293385938</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U26" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V26" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W26" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X26" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y26" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>760.996180350538</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C27" t="n">
-        <v>667.1086307111752</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6308,49 +6308,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>131.5118602307795</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M27" t="n">
-        <v>359.1732256175491</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N27" t="n">
-        <v>586.8345910043187</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="O27" t="n">
         <v>814.4959563910883</v>
       </c>
       <c r="P27" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T27" t="n">
-        <v>760.996180350538</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U27" t="n">
-        <v>760.996180350538</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V27" t="n">
-        <v>760.996180350538</v>
+        <v>500.161659816414</v>
       </c>
       <c r="W27" t="n">
-        <v>760.996180350538</v>
+        <v>500.161659816414</v>
       </c>
       <c r="X27" t="n">
-        <v>760.996180350538</v>
+        <v>500.161659816414</v>
       </c>
       <c r="Y27" t="n">
-        <v>760.996180350538</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="28">
@@ -6408,25 +6408,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S28" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U28" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V28" t="n">
-        <v>706.0765657361283</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W28" t="n">
-        <v>473.7927524652685</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X28" t="n">
-        <v>241.5089391944087</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y28" t="n">
         <v>18.39687801105209</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C29" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D29" t="n">
-        <v>853.5854347311666</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E29" t="n">
-        <v>621.3016214603068</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F29" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G29" t="n">
-        <v>156.7339949185873</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H29" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
@@ -6466,16 +6466,16 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>390.7080163066498</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L29" t="n">
-        <v>618.3693816934194</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M29" t="n">
-        <v>846.030747080189</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N29" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O29" t="n">
         <v>919.8439005526046</v>
@@ -6490,25 +6490,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X29" t="n">
-        <v>919.8439005526046</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="Y29" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.39687801105209</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="C30" t="n">
-        <v>18.39687801105209</v>
+        <v>404.1417471458525</v>
       </c>
       <c r="D30" t="n">
-        <v>18.39687801105209</v>
+        <v>274.0527797673328</v>
       </c>
       <c r="E30" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="F30" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G30" t="n">
         <v>18.39687801105209</v>
@@ -6545,49 +6545,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K30" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L30" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M30" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N30" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O30" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="P30" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S30" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T30" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U30" t="n">
-        <v>550.9330370291798</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V30" t="n">
-        <v>550.9330370291798</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W30" t="n">
-        <v>320.8157911624667</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X30" t="n">
-        <v>320.8157911624667</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.5015742379739</v>
+        <v>554.7959775857603</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>497.7625960475978</v>
+        <v>29.34812901007768</v>
       </c>
       <c r="C31" t="n">
-        <v>497.7625960475978</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D31" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E31" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F31" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H31" t="n">
         <v>18.39687801105209</v>
@@ -6630,7 +6630,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
         <v>633.8407713642671</v>
@@ -6648,25 +6648,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S31" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T31" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U31" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V31" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="W31" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="X31" t="n">
-        <v>720.8746572309544</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="Y31" t="n">
-        <v>497.7625960475978</v>
+        <v>29.34812901007768</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C32" t="n">
-        <v>521.0465322227953</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D32" t="n">
-        <v>521.0465322227953</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E32" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F32" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G32" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H32" t="n">
         <v>18.39687801105209</v>
@@ -6703,19 +6703,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M32" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N32" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O32" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P32" t="n">
         <v>734.998340411656</v>
@@ -6724,28 +6724,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W32" t="n">
-        <v>753.3303454936552</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="X32" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y32" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>233.2064666336649</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="C33" t="n">
-        <v>233.2064666336649</v>
+        <v>404.1417471458525</v>
       </c>
       <c r="D33" t="n">
-        <v>233.2064666336649</v>
+        <v>274.0527797673328</v>
       </c>
       <c r="E33" t="n">
-        <v>233.2064666336649</v>
+        <v>274.0527797673328</v>
       </c>
       <c r="F33" t="n">
-        <v>233.2064666336649</v>
+        <v>149.6209736504646</v>
       </c>
       <c r="G33" t="n">
-        <v>156.0815483985396</v>
+        <v>29.56115572232908</v>
       </c>
       <c r="H33" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M33" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O33" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="P33" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="P33" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S33" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T33" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U33" t="n">
-        <v>685.863714129311</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V33" t="n">
-        <v>463.3237125003781</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W33" t="n">
-        <v>233.2064666336649</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X33" t="n">
-        <v>233.2064666336649</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y33" t="n">
-        <v>233.2064666336649</v>
+        <v>554.7959775857603</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.6019959450629</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="C34" t="n">
-        <v>18.39687801105209</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="D34" t="n">
-        <v>18.39687801105209</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="E34" t="n">
-        <v>18.39687801105209</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F34" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G34" t="n">
         <v>18.39687801105209</v>
@@ -6858,7 +6858,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J34" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K34" t="n">
         <v>100.231919120994</v>
@@ -6867,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6885,25 +6885,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V34" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="W34" t="n">
-        <v>687.5600872817448</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="X34" t="n">
-        <v>455.276274010885</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="Y34" t="n">
-        <v>373.8100146363641</v>
+        <v>484.7440034642941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
         <v>18.39687801105209</v>
@@ -6943,46 +6943,46 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L35" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M35" t="n">
-        <v>846.030747080189</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N35" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P35" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U35" t="n">
-        <v>919.8439005526046</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="V35" t="n">
-        <v>687.5600872817448</v>
+        <v>417.283360296407</v>
       </c>
       <c r="W35" t="n">
-        <v>455.276274010885</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="X35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>397.8662683300237</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="C36" t="n">
-        <v>247.2120378901159</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="D36" t="n">
-        <v>247.2120378901159</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E36" t="n">
-        <v>110.7655470010036</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F36" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G36" t="n">
         <v>18.39687801105209</v>
@@ -7016,25 +7016,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L36" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M36" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N36" t="n">
+        <v>473.7196087845913</v>
+      </c>
+      <c r="O36" t="n">
         <v>692.182535165835</v>
       </c>
-      <c r="N36" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O36" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="P36" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7049,19 +7049,19 @@
         <v>607.9294116513819</v>
       </c>
       <c r="U36" t="n">
-        <v>397.8662683300237</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V36" t="n">
-        <v>397.8662683300237</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="W36" t="n">
-        <v>397.8662683300237</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="X36" t="n">
-        <v>397.8662683300237</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="Y36" t="n">
-        <v>397.8662683300237</v>
+        <v>392.9774694345755</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>360.8430140968712</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="C37" t="n">
-        <v>190.6378961628604</v>
+        <v>393.453979980311</v>
       </c>
       <c r="D37" t="n">
-        <v>190.6378961628604</v>
+        <v>237.8208668828258</v>
       </c>
       <c r="E37" t="n">
-        <v>190.6378961628604</v>
+        <v>237.8208668828258</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6509319116065</v>
+        <v>80.49493209579873</v>
       </c>
       <c r="G37" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H37" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I37" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J37" t="n">
         <v>18.39687801105209</v>
@@ -7122,25 +7122,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>593.126827367731</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T37" t="n">
-        <v>593.126827367731</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U37" t="n">
-        <v>593.126827367731</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V37" t="n">
-        <v>593.126827367731</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W37" t="n">
-        <v>360.8430140968712</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X37" t="n">
-        <v>360.8430140968712</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="Y37" t="n">
-        <v>360.8430140968712</v>
+        <v>563.6590979143218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>621.3016214603068</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="C38" t="n">
-        <v>621.3016214603068</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="D38" t="n">
-        <v>621.3016214603068</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E38" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F38" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G38" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I38" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L38" t="n">
-        <v>18.39687801105209</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M38" t="n">
-        <v>246.0582433978217</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N38" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7201,25 +7201,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T38" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U38" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V38" t="n">
-        <v>881.8509868381266</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="W38" t="n">
-        <v>881.8509868381266</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="X38" t="n">
-        <v>649.5671735672668</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="Y38" t="n">
-        <v>621.3016214603068</v>
+        <v>250.7698052374575</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="C39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="D39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="E39" t="n">
-        <v>376.2963519956877</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="F39" t="n">
-        <v>276.1413663266751</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="G39" t="n">
-        <v>156.0815483985396</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="H39" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
@@ -7256,22 +7256,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L39" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="N39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
@@ -7286,19 +7286,19 @@
         <v>742.8600887515131</v>
       </c>
       <c r="U39" t="n">
-        <v>742.8600887515131</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V39" t="n">
-        <v>742.8600887515131</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7428428848</v>
+        <v>80.1396979345088</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>502.3520685904437</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C40" t="n">
-        <v>486.9147380363619</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D40" t="n">
-        <v>331.2816249388766</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>175.7228127980791</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
         <v>18.39687801105209</v>
@@ -7341,7 +7341,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M40" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
         <v>633.8407713642671</v>
@@ -7350,34 +7350,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P40" t="n">
-        <v>916.4217041825538</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q40" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>919.8439005526047</v>
+        <v>891.2845844274296</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526047</v>
+        <v>891.2845844274296</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526047</v>
+        <v>659.0007711565698</v>
       </c>
       <c r="U40" t="n">
-        <v>919.8439005526047</v>
+        <v>426.71695788571</v>
       </c>
       <c r="V40" t="n">
-        <v>919.8439005526047</v>
+        <v>426.71695788571</v>
       </c>
       <c r="W40" t="n">
-        <v>919.8439005526047</v>
+        <v>426.71695788571</v>
       </c>
       <c r="X40" t="n">
-        <v>687.5600872817449</v>
+        <v>426.71695788571</v>
       </c>
       <c r="Y40" t="n">
-        <v>687.5600872817449</v>
+        <v>203.6048967023534</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D41" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E41" t="n">
         <v>250.6806912819119</v>
@@ -7414,49 +7414,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K41" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L41" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M41" t="n">
-        <v>52.01424425134721</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N41" t="n">
-        <v>279.6756096381168</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O41" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P41" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U41" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V41" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W41" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X41" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y41" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="42">
@@ -7493,46 +7493,46 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L42" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="M42" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N42" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O42" t="n">
         <v>473.7196087845913</v>
       </c>
-      <c r="N42" t="n">
-        <v>701.380974171361</v>
-      </c>
-      <c r="O42" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="P42" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T42" t="n">
-        <v>742.8600887515131</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U42" t="n">
-        <v>532.7969454301549</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V42" t="n">
-        <v>310.256943801222</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="W42" t="n">
-        <v>80.1396979345088</v>
+        <v>320.8157911624667</v>
       </c>
       <c r="X42" t="n">
-        <v>80.1396979345088</v>
+        <v>131.5087135124783</v>
       </c>
       <c r="Y42" t="n">
         <v>18.39687801105209</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>344.2351090425481</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C43" t="n">
-        <v>174.0299911085373</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D43" t="n">
         <v>18.39687801105209</v>
@@ -7593,28 +7593,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S43" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T43" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="U43" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V43" t="n">
-        <v>752.5551889172061</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W43" t="n">
-        <v>752.5551889172061</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X43" t="n">
-        <v>752.5551889172061</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.4431277338495</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="C44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="D44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="E44" t="n">
-        <v>288.7627189519355</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F44" t="n">
-        <v>288.7627189519355</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G44" t="n">
-        <v>56.47890568107576</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H44" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
         <v>18.39687801105209</v>
@@ -7651,22 +7651,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="L44" t="n">
         <v>390.7080163066498</v>
       </c>
-      <c r="L44" t="n">
-        <v>618.3693816934194</v>
-      </c>
       <c r="M44" t="n">
-        <v>618.3693816934194</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N44" t="n">
-        <v>618.3693816934194</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O44" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P44" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q44" t="n">
         <v>919.8439005526046</v>
@@ -7681,19 +7681,19 @@
         <v>753.3303454936552</v>
       </c>
       <c r="U44" t="n">
-        <v>521.0465322227953</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.7627189519355</v>
+        <v>753.3303454936552</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.01837283546</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C45" t="n">
-        <v>409.3641423955522</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D45" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E45" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F45" t="n">
         <v>18.39687801105209</v>
@@ -7727,25 +7727,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L45" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M45" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N45" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O45" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P45" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
         <v>919.8439005526046</v>
@@ -7754,25 +7754,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T45" t="n">
-        <v>760.996180350538</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U45" t="n">
-        <v>760.996180350538</v>
+        <v>508.8799023282195</v>
       </c>
       <c r="V45" t="n">
-        <v>760.996180350538</v>
+        <v>320.8474428919212</v>
       </c>
       <c r="W45" t="n">
-        <v>760.996180350538</v>
+        <v>320.8474428919212</v>
       </c>
       <c r="X45" t="n">
-        <v>760.996180350538</v>
+        <v>320.8474428919212</v>
       </c>
       <c r="Y45" t="n">
-        <v>711.8147072764214</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
         <v>18.39687801105209</v>
@@ -7833,25 +7833,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>883.5023717241859</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>883.5023717241859</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U46" t="n">
-        <v>651.2185584533261</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V46" t="n">
-        <v>418.9347451824663</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W46" t="n">
-        <v>418.9347451824663</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M17" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O17" t="n">
         <v>149.5638374240964</v>
@@ -9184,7 +9184,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
@@ -9257,10 +9257,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L20" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N20" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O20" t="n">
-        <v>183.5207730203541</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P20" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L21" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>307.7529874266315</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9640,7 +9640,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
         <v>153.2481697304917</v>
@@ -9649,16 +9649,16 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
-        <v>266.9255203461039</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5638374240964</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>383.2091448686429</v>
@@ -9886,10 +9886,10 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>369.7881139451009</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9956,25 +9956,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>193.4954296289271</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,19 +10114,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>383.2091448686429</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M29" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10193,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P30" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,10 +10351,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>271.0551987388116</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
         <v>149.7250515977273</v>
@@ -10363,10 +10363,10 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>380.2624223790764</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M33" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>317.0443399574658</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10591,22 +10591,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>196.0090001429458</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L36" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>370.971069848242</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10904,16 +10904,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>196.0090001429458</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N39" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
@@ -10922,7 +10922,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,25 +11062,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>183.681987193985</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>379.5248125622476</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P41" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>313.3571814962057</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11299,7 +11299,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
         <v>383.2091448686429</v>
@@ -11311,13 +11311,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P44" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.0574392996201</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P45" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23743,7 +23743,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>366.3289079700248</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23782,16 +23782,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23831,7 +23831,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>23.64589558530929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -23867,16 +23867,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>134.8830935692152</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23946,13 +23946,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23980,7 +23980,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>201.4804884616649</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -23989,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>90.55715962316265</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24050,16 +24050,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>74.15374467557422</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,16 +24101,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>105.0163225571777</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
@@ -24135,13 +24135,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>1.646080248224564</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24189,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>68.86743657982262</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>1.778543856695563</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,10 +24214,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>187.3126840109637</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
@@ -24256,19 +24256,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V23" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>320.8924585660982</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.35377786598212</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>22.50197766066266</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>175.2139736830806</v>
@@ -24350,7 +24350,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>43.73735228899207</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>1.778543856695563</v>
+        <v>121.7258554240627</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,10 +24451,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24463,7 +24463,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>128.1701442004959</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>23.23422713159621</v>
+        <v>41.95019664609021</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>56.19901399253958</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>188.0056688550401</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -24590,7 +24590,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V28" t="n">
-        <v>51.68989025907243</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>315.9908363322753</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E29" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -24745,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>354.8245945952814</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28.40472183189915</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0.8419029903574256</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>87.41444223540508</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24827,7 +24827,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24840,10 +24840,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>157.6613282656353</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24852,10 +24852,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24888,13 +24888,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24903,7 +24903,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>34.75996810641303</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E32" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>371.3299205635534</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24979,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>220.6214366919236</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24998,25 +24998,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>42.50555069608009</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.36180730124086</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>14.64375862138556</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25125,25 +25125,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.2293437907474</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>206.4815010551934</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25210,7 +25210,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V35" t="n">
         <v>108.7247660653656</v>
@@ -25219,7 +25219,7 @@
         <v>137.3280695432443</v>
       </c>
       <c r="X35" t="n">
-        <v>155.5971038781226</v>
+        <v>220.6214366919236</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25235,19 +25235,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>31.74250575564754</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>87.41444223540508</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>15.01365061340775</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>151.8055808304154</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>135.1689272898088</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25335,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>381.4984946795087</v>
       </c>
       <c r="E38" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25450,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X38" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>364.5429054027146</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>24.03405224337705</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>26.28905051118294</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>153.2201095061297</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>94.38825650982558</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,10 +25614,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>196.0080627329375</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F41" t="n">
         <v>182.7645189471708</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25684,7 +25684,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>227.5891596642547</v>
       </c>
     </row>
     <row r="42">
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.3956830310257</v>
+        <v>65.54035760883588</v>
       </c>
     </row>
     <row r="43">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>124.3011617266384</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>97.7037272083395</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>360.8564822412974</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
         <v>179.0701528187257</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I44" t="n">
-        <v>99.2525383451364</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>118.8592197488542</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>34.16246677070836</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -26012,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>128.8314164118724</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26073,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>164.8098094391416</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U46" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923285</v>
+        <v>60.7699248257006</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232951.5378089735</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435041.3003667663</v>
+        <v>435041.3003667662</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>435041.3003667662</v>
+        <v>435041.3003667663</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>37572.82867886667</v>
       </c>
       <c r="E2" t="n">
-        <v>37572.82867886668</v>
+        <v>37572.82867886666</v>
       </c>
       <c r="F2" t="n">
-        <v>37572.82867886668</v>
+        <v>37572.82867886667</v>
       </c>
       <c r="G2" t="n">
-        <v>37572.82867886667</v>
+        <v>70146.61683840567</v>
       </c>
       <c r="H2" t="n">
-        <v>70146.61683840569</v>
+        <v>70146.61683840567</v>
       </c>
       <c r="I2" t="n">
         <v>70146.61683840569</v>
@@ -26340,22 +26340,22 @@
         <v>70146.61683840567</v>
       </c>
       <c r="K2" t="n">
+        <v>70146.61683840564</v>
+      </c>
+      <c r="L2" t="n">
         <v>70146.61683840567</v>
       </c>
-      <c r="L2" t="n">
-        <v>70146.61683840568</v>
-      </c>
       <c r="M2" t="n">
+        <v>70146.61683840565</v>
+      </c>
+      <c r="N2" t="n">
+        <v>70146.61683840569</v>
+      </c>
+      <c r="O2" t="n">
         <v>70146.61683840567</v>
       </c>
-      <c r="N2" t="n">
-        <v>70146.61683840568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>70146.61683840568</v>
-      </c>
       <c r="P2" t="n">
-        <v>70146.61683840568</v>
+        <v>70146.61683840565</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63028.85387074017</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55340.33862797121</v>
       </c>
       <c r="P3" t="n">
-        <v>54356.79553730534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="C4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="D4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="E4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="F4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="G4" t="n">
-        <v>7514.565735773333</v>
+        <v>14361.01034434902</v>
       </c>
       <c r="H4" t="n">
-        <v>14361.01034434903</v>
+        <v>14361.01034434902</v>
       </c>
       <c r="I4" t="n">
         <v>14361.01034434902</v>
       </c>
       <c r="J4" t="n">
-        <v>14361.01034434902</v>
+        <v>14361.01034434903</v>
       </c>
       <c r="K4" t="n">
         <v>14361.01034434902</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="H5" t="n">
         <v>13981.62728839959</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906657</v>
+        <v>-4996.930551051562</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906657</v>
+        <v>-4996.93055105157</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906657</v>
+        <v>-4996.93055105157</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309335</v>
+        <v>28630.66944894842</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309335</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309334</v>
+        <v>-22326.73027763263</v>
       </c>
       <c r="H6" t="n">
-        <v>-20241.56153539235</v>
+        <v>40702.12359310754</v>
       </c>
       <c r="I6" t="n">
-        <v>41803.97920565708</v>
+        <v>40702.12359310757</v>
       </c>
       <c r="J6" t="n">
-        <v>41803.97920565705</v>
+        <v>40702.12359310754</v>
       </c>
       <c r="K6" t="n">
-        <v>41803.97920565705</v>
+        <v>40702.12359310751</v>
       </c>
       <c r="L6" t="n">
-        <v>41803.97920565707</v>
+        <v>40702.12359310754</v>
       </c>
       <c r="M6" t="n">
-        <v>41803.97920565705</v>
+        <v>40702.12359310753</v>
       </c>
       <c r="N6" t="n">
-        <v>41803.97920565707</v>
+        <v>40702.12359310757</v>
       </c>
       <c r="O6" t="n">
-        <v>41803.97920565707</v>
+        <v>-14638.21503486367</v>
       </c>
       <c r="P6" t="n">
-        <v>-12552.81633164827</v>
+        <v>40702.12359310753</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
         <v>229.9609751381512</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O20" t="n">
-        <v>33.95693559625767</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L21" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152508</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,16 +36369,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>229.9609751381512</v>
@@ -36606,10 +36606,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>220.6696226073169</v>
-      </c>
-      <c r="N30" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O30" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="P30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L31" t="n">
         <v>165.78549482202</v>
@@ -37071,22 +37071,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>117.8070290083198</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P32" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M33" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="Q33" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O33" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P33" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M35" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N35" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N39" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="Q42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O42" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>229.9609751381512</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.55874088122788</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N45" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P45" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
